--- a/biology/Médecine/Ovogonie/Ovogonie.xlsx
+++ b/biology/Médecine/Ovogonie/Ovogonie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ovogonies sont des cellules souches de la lignée germinale chez la femme.
 Elles sont issues des cellules germinales primordiales. Ces cellules sont appelées ovogonies dès qu'elles entrent dans les gonades, durant la vie embryonnaire. Il s'agit de cellules diploïdes.
